--- a/similarities/split_global/harmonic_similarity_timestamps_287.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_287.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,754 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>jaah_59</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7', 'C']]</t>
+          <t>['F:7', 'Bb', 'C:min7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['Eb:7', 'Ab', 'Db:maj6']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:18.870000', '0:00:25.690000')]</t>
+          <t>('0:00:06.370000', '0:00:09.130000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:17.080000', '0:00:24.060000')]</t>
+          <t>('0:00:03.100000', '0:00:06.490000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=6.37</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=17.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=3.1</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E']]</t>
+          <t>['Bb', 'F:7', 'Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'C:7', 'F']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:00.100000', '0:01:05.020000')]</t>
+          <t>('0:00:50.130000', '0:01:05.020000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:36.970000', '0:00:42.100000')]</t>
+          <t>('0:01:19.980000', '0:01:39.360000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=60.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=50.13</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=36.97']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['E', 'A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3']]</t>
+          <t>['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:09.380000', '0:02:14.380000')]</t>
+          <t>('0:00:09.162102', '0:00:17.463236')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:05.146000', '0:00:09.474000')]</t>
+          <t>('0:03:37.493000', '0:03:43.713000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['Ab', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F:maj', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:06.820000')]</t>
+          <t>('0:01:21.850000', '0:01:27.540000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:18.420000', '0:00:24.340000')]</t>
+          <t>('0:00:13.155000', '0:00:20.379000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=2.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=81.85</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=13.155</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_213</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:36.711000', '0:00:39.787000')]</t>
+          <t>('0:00:00.820000', '0:00:06.760000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:54.040000', '0:01:01.920000')]</t>
+          <t>('0:00:42.940000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-233#t=36.711']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=0.82</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=54.04']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:38.580000', '0:00:43.300000')]</t>
+          <t>('0:02:34.020000', '0:02:40.380000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:31.600000', '0:00:33.800000')]</t>
+          <t>('0:02:04.920000', '0:02:09.320000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=38.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=31.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>schubert-winterreise_213</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:29.500000', '0:00:31.640000')]</t>
+          <t>('0:00:00.360000', '0:00:05')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:48.001000', '0:00:54.307000')]</t>
+          <t>('0:00:42.940000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=29.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=48.001']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+          <t>('0:01:33.100000', '0:01:51.540000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:46.932280', '0:00:55.860352')]</t>
+          <t>('0:01:00.820000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=93.1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=60.82</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:03.320000', '0:00:08.680000')]</t>
+          <t>('0:01:23.460000', '0:01:30.900000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:07.140000')]</t>
+          <t>('0:01:06.920000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=0.36']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C', 'C:7', 'F']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00', '0:00:02.430000')]</t>
+          <t>('0:01:06.920000', '0:01:24.540000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:31.527551', '0:00:47.026870')]</t>
+          <t>('0:01:57.680000', '0:01:59.480000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=0.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=66.92</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=31.527551']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=117.68</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>isophonics_224</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
+          <t>['E:7', 'A', 'D']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'A:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:56.675034', '0:02:13.857800')]</t>
+          <t>('0:00:26.987959', '0:00:33.059977')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:03:12.882000', '0:04:13.747000')]</t>
+          <t>('0:00:54.620000', '0:01:00.500000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=116.675034']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=26.987959</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=192.882']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=54.62</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_224</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['E:7', 'A', 'D']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'A:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:30.740000', '0:01:49.700000')]</t>
+          <t>('0:00:26.987959', '0:00:33.059977')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:01.880000', '0:01:07.800000')]</t>
+          <t>('0:00:53.520000', '0:00:59.340000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=90.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=26.987959</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=61.88']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=53.52</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_71</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'D:maj'], ['D:7', 'G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:maj'], ['G:7', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:43.040000', '0:00:46.660000'), ('0:00:44.160000', '0:00:47.280000')]</t>
+          <t>('0:01:45.240000', '0:02:00.100000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:07.280000', '0:00:09.480000'), ('0:00:07.840000', '0:00:10.040000')]</t>
+          <t>('0:00:40.080000', '0:00:45.580000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=43.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=44.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=105.24</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=7.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=7.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=40.08</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F', 'A#:min']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:45.720000', '0:00:49.900000')]</t>
+          <t>('0:00:12.140000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:13.360000', '0:00:20.940000')]</t>
+          <t>('0:01:20.220000', '0:01:27.220000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:56.660000', '0:02:01.420000')]</t>
+          <t>('0:00:57.777619', '0:01:01.864331')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
+          <t>('0:00:00.780000', '0:00:19.180000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=116.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=57.777619</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=0.78</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
